--- a/biology/Botanique/Agathe_Haevermans/Agathe_Haevermans.xlsx
+++ b/biology/Botanique/Agathe_Haevermans/Agathe_Haevermans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathe Haevermans, née Ravet le 11 janvier 1970 à Clermont-Ferrand, est une illustratrice naturaliste française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Associant travail de terrain (en France ou à l'étranger) et travail d'illustration au Muséum national d'histoire naturelle de Paris, Agathe Haevermans aime se rattacher à l'esprit des grands explorateurs (représenté par le duo d'illustrateur et professeur de botanique tel que Ferdinand Bauer et John Sibthorp ou Sydney Parkinson et Joseph Banks participant au premier voyage de James Cook).
 Après avoir débuté comme soigneur animalier spécialisé dans les reptiles en 1993, Agathe Haevermans devient dessinatrice scientifique fin 1999 au Muséum.
@@ -551,12 +565,14 @@
           <t>Liens vers articles scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2012 (publié 2012/12/18)-A distinctive new species of wild banana (Musa&gt;, Musaceae) from northern Vietnam[1]
-2013 par Thomas Haevermans; article scientifique (publié 2013/10/11)-Clearing up Vietnamosasa (Poaceae, Bambusoideae): typification and nomenclature of a distinctive paleotropical bamboo genus[2]
-2015 The Genus Sartidia (Poaceae: Aristidoideae) in Madagascar [3]
-2017 par Emily J Bailes, Mario Coiro, Thomas Haevermans, Hervé Sauquet, Raphaël Cornette, Susana Magallón, Jürg Schönenberger et Peter K Endress; article scientifique (publié 2017)[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2012 (publié 2012/12/18)-A distinctive new species of wild banana (Musa&gt;, Musaceae) from northern Vietnam
+2013 par Thomas Haevermans; article scientifique (publié 2013/10/11)-Clearing up Vietnamosasa (Poaceae, Bambusoideae): typification and nomenclature of a distinctive paleotropical bamboo genus
+2015 The Genus Sartidia (Poaceae: Aristidoideae) in Madagascar 
+2017 par Emily J Bailes, Mario Coiro, Thomas Haevermans, Hervé Sauquet, Raphaël Cornette, Susana Magallón, Jürg Schönenberger et Peter K Endress; article scientifique (publié 2017)</t>
         </is>
       </c>
     </row>
